--- a/recognition/compare.xlsx
+++ b/recognition/compare.xlsx
@@ -9,15 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="голос 1" sheetId="1" r:id="rId1"/>
     <sheet name="голос 2 - gen" sheetId="2" r:id="rId2"/>
     <sheet name="заседание" sheetId="3" r:id="rId3"/>
+    <sheet name="15с-выводы" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'голос 1'!$A$2:$D$403</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="316">
   <si>
     <t>какие</t>
   </si>
@@ -914,6 +918,69 @@
   </si>
   <si>
     <t>заседание</t>
+  </si>
+  <si>
+    <t>выводы_real_12s</t>
+  </si>
+  <si>
+    <t>з</t>
+  </si>
+  <si>
+    <t>генератор</t>
+  </si>
+  <si>
+    <t>диктор</t>
+  </si>
+  <si>
+    <t>-8db: -5db</t>
+  </si>
+  <si>
+    <t>-4dB</t>
+  </si>
+  <si>
+    <t>-1db: -3db</t>
+  </si>
+  <si>
+    <t>0db</t>
+  </si>
+  <si>
+    <t>1db: 4db</t>
+  </si>
+  <si>
+    <t>5db</t>
+  </si>
+  <si>
+    <t>6dB</t>
+  </si>
+  <si>
+    <t>7dB</t>
+  </si>
+  <si>
+    <t>8dB</t>
+  </si>
+  <si>
+    <t>9dB</t>
+  </si>
+  <si>
+    <t>10dB</t>
+  </si>
+  <si>
+    <t>11dB</t>
+  </si>
+  <si>
+    <t>12db: 14db</t>
+  </si>
+  <si>
+    <t>генератор  норм. 9dB</t>
+  </si>
+  <si>
+    <t>диктор  норм. 9dB</t>
+  </si>
+  <si>
+    <t>доля вставок</t>
+  </si>
+  <si>
+    <t>WER</t>
   </si>
 </sst>
 </file>
@@ -923,7 +990,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,8 +999,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,8 +1020,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -955,11 +1035,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -968,12 +1087,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -986,9 +1155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1026,7 +1195,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1098,7 +1267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6023,7 +6192,7 @@
         <v>41</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="6">IF(OR(A387=B387,C387=1),0,1)</f>
+        <f t="shared" ref="D387:D404" si="6">IF(OR(A387=B387,C387=1),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11225,8 +11394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16140,4 +16309,1199 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="3">
+        <f>SUM(D:D)/COUNT(D:D)</f>
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <f>COUNTIF(E4:E27,"в")/COUNTA(A4:A27)</f>
+        <v>0.625</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4">
+        <f>IF(OR(A4=B4,C4=1),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D27" si="0">IF(OR(A5=B5,C5=1),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <f>SUM(B3:D3)/$E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <f>B3/$E$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E19" si="0">SUM(B4:D4)/$E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F19" si="1">B4/$E$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="8">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="8">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="8">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="8">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="8">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="8">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="8">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="8">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z31"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13">
+        <v>0.75</v>
+      </c>
+      <c r="H13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14">
+        <v>0.875</v>
+      </c>
+      <c r="H14">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.75</v>
+      </c>
+      <c r="H15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.75</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H18">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="G19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H19">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20">
+        <v>0.875</v>
+      </c>
+      <c r="G20">
+        <v>0.75</v>
+      </c>
+      <c r="H20">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0.75</v>
+      </c>
+      <c r="G21">
+        <v>0.75</v>
+      </c>
+      <c r="H21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+      <c r="G22">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H22">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0.75</v>
+      </c>
+      <c r="G23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H23">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H24">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H25">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/recognition/compare.xlsx
+++ b/recognition/compare.xlsx
@@ -15,9 +15,8 @@
     <sheet name="голос 1" sheetId="1" r:id="rId1"/>
     <sheet name="голос 2 - gen" sheetId="2" r:id="rId2"/>
     <sheet name="заседание" sheetId="3" r:id="rId3"/>
-    <sheet name="15с-выводы" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="15с-выводы" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'голос 1'!$A$2:$D$403</definedName>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="328">
   <si>
     <t>какие</t>
   </si>
@@ -920,9 +919,6 @@
     <t>заседание</t>
   </si>
   <si>
-    <t>выводы_real_12s</t>
-  </si>
-  <si>
     <t>з</t>
   </si>
   <si>
@@ -981,6 +977,45 @@
   </si>
   <si>
     <t>WER</t>
+  </si>
+  <si>
+    <t>диктор пик -1dB : норм.-9dB</t>
+  </si>
+  <si>
+    <t>диктор  норм. -15dB:-30dB</t>
+  </si>
+  <si>
+    <t>диктор  норм. -35dB</t>
+  </si>
+  <si>
+    <t>диктор  норм. -40dB</t>
+  </si>
+  <si>
+    <t>диктор  норм. -45dB:-55dB</t>
+  </si>
+  <si>
+    <t>диктор  норм. -60dB</t>
+  </si>
+  <si>
+    <t>диктор  норм. -65dB</t>
+  </si>
+  <si>
+    <t>диктор  норм. -70dB</t>
+  </si>
+  <si>
+    <t>генератор пик -2dB: норм -35dB</t>
+  </si>
+  <si>
+    <t>генератор норм.  -40dB: -50dB</t>
+  </si>
+  <si>
+    <t>генератор норм. -55dB</t>
+  </si>
+  <si>
+    <t>генератор норм. -60dB</t>
+  </si>
+  <si>
+    <t>генератор норм. -65dB</t>
   </si>
 </sst>
 </file>
@@ -1036,30 +1071,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1074,11 +1085,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1087,28 +1126,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16313,358 +16349,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="3">
-        <f>SUM(D:D)/COUNT(D:D)</f>
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E2" s="3">
-        <f>COUNTIF(E4:E27,"в")/COUNTA(A4:A27)</f>
-        <v>0.625</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4">
-        <f>IF(OR(A4=B4,C4=1),0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D27" si="0">IF(OR(A5=B5,C5=1),0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16679,395 +16367,689 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <f>SUM(B3:D3)/$E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>B3/$E$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E19" si="0">SUM(B4:D4)/$E$1</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F19" si="1">B4/$E$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="4">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="4">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="4">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="4">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="4">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="4">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="4">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="4">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="4">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <f>SUM(B3:D3)/$E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <f>B3/$E$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" ref="E4:E19" si="0">SUM(B4:D4)/$E$1</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F19" si="1">B4/$E$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E20:E34" si="2">SUM(B22:D22)/$E$1</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" si="1"/>
+      <c r="F22" s="5">
+        <f t="shared" ref="F20:F34" si="3">B22/$E$1</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="0"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="8">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="F23" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" s="4">
         <v>14</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="4">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="8">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" s="8">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="8">
-        <v>18</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="8">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="E32" s="5">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B13" s="8">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="8">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B15" s="8">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B16" s="8">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B17" s="8">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="1"/>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B18" s="8">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="8">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>3</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="4">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17075,433 +17057,286 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>300</v>
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:22" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="N7" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="U7" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="M9" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>301</v>
+    </row>
+    <row r="10" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>302</v>
+    </row>
+    <row r="11" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="G11">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12">
+        <v>0.125</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13">
+        <v>0.625</v>
+      </c>
+      <c r="H13">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G12">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13">
-        <v>0.75</v>
-      </c>
-      <c r="H13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14">
-        <v>0.875</v>
-      </c>
-      <c r="H14">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.75</v>
-      </c>
-      <c r="H15">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0.75</v>
-      </c>
       <c r="H16">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G17">
+        <v>0.125</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G17">
-        <v>0.75</v>
-      </c>
-      <c r="H17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="H18">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E19">
-        <v>0.75</v>
-      </c>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G19">
-        <v>0.70833333333333337</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E20">
-        <v>0.875</v>
-      </c>
-      <c r="G20">
-        <v>0.75</v>
-      </c>
-      <c r="H20">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <v>0.75</v>
-      </c>
-      <c r="G21">
-        <v>0.75</v>
-      </c>
-      <c r="H21">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <v>0.75</v>
-      </c>
-      <c r="G22">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H22">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <v>0.75</v>
-      </c>
-      <c r="G23">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H23">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G24">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H24">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G25">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H25">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/recognition/compare.xlsx
+++ b/recognition/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265" tabRatio="782" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265" tabRatio="782" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="голос 1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7720" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7725" uniqueCount="530">
   <si>
     <t>какие</t>
   </si>
@@ -1622,6 +1622,27 @@
   </si>
   <si>
     <t>подпрыгнул</t>
+  </si>
+  <si>
+    <t>-25dB</t>
+  </si>
+  <si>
+    <t>-20dB</t>
+  </si>
+  <si>
+    <t>-15dB</t>
+  </si>
+  <si>
+    <t>-10dB</t>
+  </si>
+  <si>
+    <t>16dB</t>
+  </si>
+  <si>
+    <t>диктор  норм. -14dB:-30dB</t>
+  </si>
+  <si>
+    <t>диктор пик -1dB : норм.-13dB</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1763,9 +1784,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1809,9 +1838,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1849,7 +1878,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1921,7 +1950,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9627,7 +9656,7 @@
         <v>46</v>
       </c>
       <c r="D210">
-        <f t="shared" ref="D198:D261" si="4">IF(OR(A210=B210,C210=1),0,1)</f>
+        <f t="shared" ref="D210:D261" si="4">IF(OR(A210=B210,C210=1),0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16013,7 +16042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -30341,15 +30370,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="16" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30359,7 +30388,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
@@ -30377,7 +30406,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="18" t="s">
         <v>296</v>
       </c>
       <c r="B3" s="4">
@@ -30399,7 +30428,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="18" t="s">
         <v>311</v>
       </c>
       <c r="B4" s="4">
@@ -30412,16 +30441,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E19" si="0">SUM(B4:D4)/$E$1</f>
+        <f t="shared" ref="E4:E24" si="0">SUM(B4:D4)/$E$1</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F19" si="1">B4/$E$1</f>
+        <f t="shared" ref="F4:F24" si="1">B4/$E$1</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="18" t="s">
         <v>297</v>
       </c>
       <c r="B5" s="4">
@@ -30443,7 +30472,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="18" t="s">
         <v>312</v>
       </c>
       <c r="B6" s="4">
@@ -30465,74 +30494,74 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>298</v>
+      <c r="A7" s="18" t="s">
+        <v>523</v>
       </c>
       <c r="B7" s="4">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B8" s="4">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="4">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>300</v>
+      <c r="A9" s="18" t="s">
+        <v>525</v>
       </c>
       <c r="B9" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>301</v>
+      <c r="A10" s="18" t="s">
+        <v>526</v>
       </c>
       <c r="B10" s="4">
         <v>18</v>
@@ -30541,20 +30570,20 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>302</v>
+      <c r="A11" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="B11" s="4">
         <v>18</v>
@@ -30575,21 +30604,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>303</v>
+      <c r="A12" s="18" t="s">
+        <v>299</v>
       </c>
       <c r="B12" s="4">
         <v>14</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
@@ -30597,8 +30626,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>304</v>
+      <c r="A13" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="B13" s="4">
         <v>15</v>
@@ -30619,433 +30648,672 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>305</v>
+      <c r="A14" s="18" t="s">
+        <v>301</v>
       </c>
       <c r="B14" s="4">
         <v>15</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>306</v>
-      </c>
-      <c r="B15" s="4">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B16" s="4">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="4">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>315</v>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>309</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" ref="E22:E34" si="2">SUM(B22:D22)/$E$1</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="4">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" s="20">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="20">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" ref="E39:E51" si="2">SUM(B39:D39)/$E$1</f>
+        <v>0.125</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" ref="F39:F51" si="3">B39/$E$1</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" ref="F22:F34" si="3">B22/$E$1</f>
+      <c r="F40" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="F41" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B45" s="4">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B46" s="4">
+        <v>24</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
         <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="F48" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B50" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="2"/>
+      <c r="F50" s="5">
+        <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B28" s="4">
-        <v>14</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="2"/>
-        <v>0.625</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="3"/>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B29" s="4">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51" s="4">
         <v>24</v>
       </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B33" s="4">
-        <v>2</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B34" s="4">
-        <v>24</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
